--- a/biology/Zoologie/Faisan_scintillant/Faisan_scintillant.xlsx
+++ b/biology/Zoologie/Faisan_scintillant/Faisan_scintillant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syrmaticus soemmerringii
 Le Faisan scintillant ou Faisan cuivré (Syrmaticus soemmerringii) est une espèce d'oiseaux de la famille des Phasianidae.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Japon (Hondo, Kiou-Siou, Sikok).
 </t>
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>S. s. soemmerringii (Temminck, 1830) : nord et centre de Kiou-Siou.
 S. s. scintillans (Gould, 1866), faisan scintillant : nord et centre de Hondo.
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le faisan de Soemmerring est inféodé aux forêts de cryptomérias (Cryptomeria),
 de cyprès (Chamaecyparis), de pins (Pinus) et aux forêts caducifoliées de chênes
@@ -614,7 +632,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son régime alimentaire comprend des glands, des châtaignes et des faines des
 arbres des genres Quercus, Castanopsis, Castanea, Cleyera, Machilus qu’il collecte
@@ -652,7 +672,9 @@
           <t>Comportement non social</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Yamashina (1976), ce faisan est plutôt sédentaire et solitaire, s’associant
 rarement en groupes.
@@ -684,7 +706,9 @@
           <t>Comportement social</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est très probable, compte tenu du caractère des mâles, que le faisan de
 Soemmerring soit polygame. Les mâles s’isolent dès le printemps, chacun gardant
@@ -722,7 +746,9 @@
           <t>Parade nuptiale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La saison de reproduction commence en mars ou avril selon les conditions de
 température. Plusieurs auteurs ont décrit une parade analogue à celle de marquage de territoire décrite plus haut, c’est-à-dire un battement des ailes, corps à la verticale, queue au sol, caroncules déployées, sans un cri.
@@ -754,7 +780,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle fait son nid au sol, habituellement sous un arbre tombé. Le nid, une simple dépression, est garni de feuilles et d’herbes sèches (Yamashina 1976). L’incubation est assurée par la femelle seule qui élève, seule également, ses poussins. D’après Yamashina, la nourriture des faisandeaux consiste surtout en insectes mais aussi en pousses de jeunes graminées, en feuilles tombées et en baies.
 </t>
@@ -785,7 +813,9 @@
           <t>Statut, conservation</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Birdlife (2004) considèrent ce faisan comme « bientôt menacé ». Les Japonais se glorifient de leur intime communion avec le milieu naturel. En vertu de leur conception animiste (shintoïsme, bouddhisme), l’homme fait partie intégrante de la nature et s’octroie donc le droit de la façonner à sa guise. Or, cette philosophie, qui autorise la conquête des terres, s’est soldée par des effets désastreux sur la faune et la flore. Déforestation et défrichement des basses pentes pour la riziculture, assèchement des baies et des marais pour l’industrie
 du tourisme, empiétement des constructions humaines sur les terres…autant de dégradations qui vont, finalement, à l’encontre de leur attachement viscéral pour la nature (Hennache &amp; Ottaviani 2006).
